--- a/水文/新建 Microsoft Excel 工作表.xlsx
+++ b/水文/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunheishere\Desktop\毕业设计\水文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3739FCB-C8FA-477A-A39B-213CCC8476D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675EC6A1-7B64-40DD-B5B2-650FC2520D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13853" yWindow="3135" windowWidth="7500" windowHeight="3818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>水位（m）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,158 +48,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>库容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下泄流量</t>
+  </si>
+  <si>
+    <t>hw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷载效应</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>计算值(kN)</t>
+  </si>
+  <si>
+    <t>力臂(m)</t>
+  </si>
+  <si>
+    <t>力矩(kNm)</t>
+  </si>
+  <si>
     <r>
-      <t>正常蓄水位（</t>
+      <t>自重 W</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>m</t>
+      <t>₁</t>
+    </r>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <r>
+      <t>自重 W</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>）</t>
+      <t>₂</t>
     </r>
   </si>
   <si>
-    <t>投资（万元）</t>
-  </si>
-  <si>
     <r>
-      <t>供水保障率（</t>
+      <t>静水压力 Pₕ</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>%</t>
+      <t>₁</t>
+    </r>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <r>
+      <t>静水压力 Pₕ</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>）</t>
+      <t>₂</t>
     </r>
   </si>
   <si>
+    <t>←</t>
+  </si>
+  <si>
     <r>
-      <t>灌溉保证率（</t>
+      <t>静水压力 Pᵥ</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>%</t>
+      <t>₁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>静水压力 Pᵥ</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="等线"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>）</t>
+      <t>₂</t>
     </r>
   </si>
   <si>
-    <t>库容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下泄流量</t>
-  </si>
-  <si>
-    <t>hw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计洪水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校核洪水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V/t-q/2</t>
-  </si>
-  <si>
-    <t>V/t+q/2</t>
-  </si>
-  <si>
-    <t>下泄流量q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水库库容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水库水位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水库库容104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v/detal t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均入库流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库流量Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>扬压力 U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₁</t>
+    </r>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <r>
+      <t>扬压力 U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>扬压力 U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>扬压力 U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₄</t>
+    </r>
+  </si>
+  <si>
+    <t>浪压力 Pₗ</t>
+  </si>
+  <si>
+    <t>泥沙压力 Ps</t>
+  </si>
+  <si>
+    <r>
+      <t>地震惯性力 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>地震惯性力 F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+  </si>
+  <si>
+    <t>地震动水压力 P₀</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +339,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81:K99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -617,7 +725,7 @@
     <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,18 +744,25 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -668,18 +783,24 @@
       <c r="F2" s="1">
         <v>28.272955134476</v>
       </c>
-      <c r="N2">
-        <v>363</v>
-      </c>
-      <c r="O2" s="5">
-        <v>3863</v>
-      </c>
-      <c r="P2" s="5">
-        <v>98.16</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>61.33</v>
-      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>5345.86</v>
+      </c>
+      <c r="K2">
+        <v>11.85</v>
+      </c>
+      <c r="L2">
+        <v>63349.440000000002</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -700,18 +821,23 @@
       <c r="F3" s="1">
         <v>31.045364660674</v>
       </c>
-      <c r="N3">
-        <v>364</v>
-      </c>
-      <c r="O3">
-        <v>4659</v>
-      </c>
-      <c r="P3" s="5">
-        <v>99.57</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>79.459999999999994</v>
-      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>8453.5</v>
+      </c>
+      <c r="K3">
+        <v>0.95</v>
+      </c>
+      <c r="L3">
+        <v>8030.83</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -732,18 +858,25 @@
       <c r="F4" s="1">
         <v>34.093565064384002</v>
       </c>
-      <c r="N4" s="3">
-        <v>365</v>
-      </c>
-      <c r="O4" s="3">
-        <v>5934</v>
-      </c>
-      <c r="P4" s="3">
-        <v>99.89</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>86.84</v>
-      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>5670.18</v>
+      </c>
+      <c r="K4">
+        <v>-11.333</v>
+      </c>
+      <c r="L4">
+        <v>-64260.15</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -764,6 +897,21 @@
       <c r="F5" s="1">
         <v>37.424282657729002</v>
       </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>26.629000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L5">
+        <v>20.69</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -784,6 +932,21 @@
       <c r="F6" s="1">
         <v>41.009776599730003</v>
       </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -804,6 +967,21 @@
       <c r="F7" s="1">
         <v>44.839979913850996</v>
       </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>21.303000000000001</v>
+      </c>
+      <c r="K7">
+        <v>14.073</v>
+      </c>
+      <c r="L7">
+        <v>299.81</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -824,6 +1002,21 @@
       <c r="F8" s="1">
         <v>48.996355935731003</v>
       </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>678.86199999999997</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -844,6 +1037,21 @@
       <c r="F9" s="1">
         <v>53.660514014249998</v>
       </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>255.58</v>
+      </c>
+      <c r="K9">
+        <v>-13.35</v>
+      </c>
+      <c r="L9">
+        <v>-3411.99</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -864,6 +1072,21 @@
       <c r="F10" s="1">
         <v>58.832041979515999</v>
       </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>354.935</v>
+      </c>
+      <c r="K10">
+        <v>-12.85</v>
+      </c>
+      <c r="L10">
+        <v>-4560.91</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -884,6 +1107,21 @@
       <c r="F11" s="1">
         <v>64.443924532905996</v>
       </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>1004.83</v>
+      </c>
+      <c r="K11">
+        <v>-2.95</v>
+      </c>
+      <c r="L11">
+        <v>-2964.25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -904,6 +1142,21 @@
       <c r="F12" s="1">
         <v>70.344165231792005</v>
       </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>1.536</v>
+      </c>
+      <c r="K12">
+        <v>-34.079000000000001</v>
+      </c>
+      <c r="L12">
+        <v>-52.34</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -924,6 +1177,21 @@
       <c r="F13" s="1">
         <v>76.496330706541997</v>
       </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1526.55</v>
+      </c>
+      <c r="K13">
+        <v>-8.9629999999999992</v>
+      </c>
+      <c r="L13">
+        <v>-13682.47</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -944,6 +1212,21 @@
       <c r="F14" s="1">
         <v>82.832766253124007</v>
       </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>105.52</v>
+      </c>
+      <c r="K14">
+        <v>18.562000000000001</v>
+      </c>
+      <c r="L14">
+        <v>1958.66</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -964,6 +1247,21 @@
       <c r="F15" s="1">
         <v>89.302442566314994</v>
       </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>138.51</v>
+      </c>
+      <c r="K15">
+        <v>9.875</v>
+      </c>
+      <c r="L15">
+        <v>1367.79</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -984,11 +1282,23 @@
       <c r="F16" s="1">
         <v>95.915040740793003</v>
       </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>92.14</v>
+      </c>
+      <c r="K16">
+        <v>-18.36</v>
+      </c>
+      <c r="L16">
+        <v>-1692.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>337</v>
       </c>
@@ -1007,41 +1317,11 @@
       <c r="F17" s="1">
         <v>102.67996248036</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>338</v>
       </c>
@@ -1060,17 +1340,8 @@
       <c r="F18" s="1">
         <v>109.58479767656</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.27</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>339</v>
       </c>
@@ -1089,18 +1360,8 @@
       <c r="F19" s="1">
         <v>116.62089014754001</v>
       </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="M19">
-        <f>(L18+L19)/2</f>
-        <v>2.1449999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>340</v>
       </c>
@@ -1119,18 +1380,8 @@
       <c r="F20" s="1">
         <v>123.78405726094999</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>14.91</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20:M68" si="0">(L19+L20)/2</f>
-        <v>9.4649999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>341</v>
       </c>
@@ -1149,18 +1400,8 @@
       <c r="F21" s="1">
         <v>131.06979018683001</v>
       </c>
-      <c r="K21">
-        <v>1.5</v>
-      </c>
-      <c r="L21">
-        <v>40.44</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>27.674999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>342</v>
       </c>
@@ -1179,18 +1420,8 @@
       <c r="F22" s="1">
         <v>138.44899532771001</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>70.02</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>55.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>343</v>
       </c>
@@ -1209,18 +1440,8 @@
       <c r="F23" s="1">
         <v>145.86780709371999</v>
       </c>
-      <c r="K23">
-        <v>2.5</v>
-      </c>
-      <c r="L23">
-        <v>94.03</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>82.025000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>344</v>
       </c>
@@ -1239,18 +1460,8 @@
       <c r="F24" s="1">
         <v>153.31408788771</v>
       </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>90.98</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>92.504999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>345</v>
       </c>
@@ -1269,18 +1480,8 @@
       <c r="F25" s="1">
         <v>160.78819308376998</v>
       </c>
-      <c r="K25">
-        <v>3.5</v>
-      </c>
-      <c r="L25">
-        <v>82.17</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>86.575000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>346</v>
       </c>
@@ -1299,18 +1500,8 @@
       <c r="F26" s="1">
         <v>168.29047805597</v>
       </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26">
-        <v>72.739999999999995</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>77.454999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>347</v>
       </c>
@@ -1329,180 +1520,28 @@
       <c r="F27" s="4">
         <v>175.82129817842002</v>
       </c>
-      <c r="K27">
-        <v>4.5</v>
-      </c>
-      <c r="L27">
-        <v>64.45</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>68.594999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="K28">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L28">
-        <v>56.48</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>60.465000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="K29">
-        <v>5.5</v>
-      </c>
-      <c r="L29">
-        <v>51.34</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>53.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="K30">
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L30">
-        <v>46.19</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>48.765000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="K31">
-        <v>6.5</v>
-      </c>
-      <c r="L31">
-        <v>41.07</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>43.629999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="K32">
+      <c r="E39" t="s">
         <v>7</v>
-      </c>
-      <c r="L32">
-        <v>37.229999999999997</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>39.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K33">
-        <v>7.5</v>
-      </c>
-      <c r="L33">
-        <v>35.19</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>36.209999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K34">
-        <v>8</v>
-      </c>
-      <c r="L34">
-        <v>33.15</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>34.17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K35">
-        <v>8.5</v>
-      </c>
-      <c r="L35">
-        <v>31.11</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>32.129999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>29.08</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>30.094999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K37">
-        <v>9.5</v>
-      </c>
-      <c r="L37">
-        <v>27.04</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
-        <v>28.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>26.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>10.5</v>
-      </c>
-      <c r="L39">
-        <v>22.99</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>23.994999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>322</v>
       </c>
@@ -1515,18 +1554,8 @@
       <c r="F40">
         <v>0.502</v>
       </c>
-      <c r="K40">
-        <v>11</v>
-      </c>
-      <c r="L40">
-        <v>20.93</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>323</v>
       </c>
@@ -1539,18 +1568,8 @@
       <c r="F41">
         <v>0.93</v>
       </c>
-      <c r="K41">
-        <v>11.5</v>
-      </c>
-      <c r="L41">
-        <v>19.05</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
-        <v>19.990000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>324</v>
       </c>
@@ -1563,18 +1582,8 @@
       <c r="F42">
         <v>4.2270000000000003</v>
       </c>
-      <c r="K42">
-        <v>12</v>
-      </c>
-      <c r="L42">
-        <v>18.12</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
-        <v>18.585000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>325</v>
       </c>
@@ -1587,18 +1596,8 @@
       <c r="F43">
         <v>50</v>
       </c>
-      <c r="K43">
-        <v>12.5</v>
-      </c>
-      <c r="L43">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="0"/>
-        <v>17.655000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>326</v>
       </c>
@@ -1608,18 +1607,8 @@
       <c r="C44" s="1">
         <v>0.95693704902568</v>
       </c>
-      <c r="K44">
-        <v>13</v>
-      </c>
-      <c r="L44">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
-        <v>16.725000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>327</v>
       </c>
@@ -1629,18 +1618,8 @@
       <c r="C45" s="1">
         <v>1.6044153925396001</v>
       </c>
-      <c r="K45">
-        <v>13.5</v>
-      </c>
-      <c r="L45">
-        <v>15.33</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
-        <v>15.795000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>328</v>
       </c>
@@ -1650,18 +1629,8 @@
       <c r="C46" s="1">
         <v>2.3470094061160003</v>
       </c>
-      <c r="K46">
-        <v>14</v>
-      </c>
-      <c r="L46">
-        <v>14.4</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="0"/>
-        <v>14.865</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>329</v>
       </c>
@@ -1671,18 +1640,8 @@
       <c r="C47" s="1">
         <v>3.14178401689</v>
       </c>
-      <c r="K47">
-        <v>14.5</v>
-      </c>
-      <c r="L47">
-        <v>13.47</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
-        <v>13.935</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>330</v>
       </c>
@@ -1692,18 +1651,8 @@
       <c r="C48" s="1">
         <v>4.0004649360025999</v>
       </c>
-      <c r="K48">
-        <v>15</v>
-      </c>
-      <c r="L48">
-        <v>12.54</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="0"/>
-        <v>13.004999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>331</v>
       </c>
@@ -1713,18 +1662,8 @@
       <c r="C49" s="1">
         <v>4.9484638102266008</v>
       </c>
-      <c r="K49">
-        <v>15.5</v>
-      </c>
-      <c r="L49">
-        <v>11.61</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="0"/>
-        <v>12.074999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>332</v>
       </c>
@@ -1734,18 +1673,8 @@
       <c r="C50" s="1">
         <v>5.9716096596480002</v>
       </c>
-      <c r="K50">
-        <v>16</v>
-      </c>
-      <c r="L50">
-        <v>10.68</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="0"/>
-        <v>11.145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>333</v>
       </c>
@@ -1755,18 +1684,8 @@
       <c r="C51" s="1">
         <v>7.0411289495804006</v>
       </c>
-      <c r="K51">
-        <v>16.5</v>
-      </c>
-      <c r="L51">
-        <v>9.75</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
-        <v>10.215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>334</v>
       </c>
@@ -1776,18 +1695,8 @@
       <c r="C52" s="1">
         <v>8.1283003557092002</v>
       </c>
-      <c r="K52">
-        <v>17</v>
-      </c>
-      <c r="L52">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="0"/>
-        <v>9.4349999999999987</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>335</v>
       </c>
@@ -1797,18 +1706,8 @@
       <c r="C53" s="1">
         <v>9.2165014535767007</v>
       </c>
-      <c r="K53">
-        <v>17.5</v>
-      </c>
-      <c r="L53">
-        <v>8.5</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="0"/>
-        <v>8.8099999999999987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>336</v>
       </c>
@@ -1818,18 +1717,8 @@
       <c r="C54" s="1">
         <v>10.304702551444</v>
       </c>
-      <c r="K54">
-        <v>18</v>
-      </c>
-      <c r="L54">
-        <v>7.88</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="0"/>
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>337</v>
       </c>
@@ -1839,18 +1728,8 @@
       <c r="C55" s="1">
         <v>11.392903649312</v>
       </c>
-      <c r="K55">
-        <v>18.5</v>
-      </c>
-      <c r="L55">
-        <v>7.26</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="0"/>
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>338</v>
       </c>
@@ -1860,18 +1739,8 @@
       <c r="C56" s="1">
         <v>12.481104747179002</v>
       </c>
-      <c r="K56">
-        <v>19</v>
-      </c>
-      <c r="L56">
-        <v>6.64</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="0"/>
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>339</v>
       </c>
@@ -1881,18 +1750,8 @@
       <c r="C57" s="1">
         <v>13.569305845046999</v>
       </c>
-      <c r="K57">
-        <v>19.5</v>
-      </c>
-      <c r="L57">
-        <v>6.01</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="0"/>
-        <v>6.3249999999999993</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>340</v>
       </c>
@@ -1902,18 +1761,8 @@
       <c r="C58" s="1">
         <v>14.657506942913999</v>
       </c>
-      <c r="K58">
-        <v>20</v>
-      </c>
-      <c r="L58">
-        <v>5.4</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>341</v>
       </c>
@@ -1923,18 +1772,8 @@
       <c r="C59" s="1">
         <v>15.749575366370999</v>
       </c>
-      <c r="K59">
-        <v>20.5</v>
-      </c>
-      <c r="L59">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="0"/>
-        <v>5.1050000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>342</v>
       </c>
@@ -1944,18 +1783,8 @@
       <c r="C60" s="1">
         <v>16.890352878285</v>
       </c>
-      <c r="K60">
-        <v>21</v>
-      </c>
-      <c r="L60">
-        <v>4.28</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="0"/>
-        <v>4.5449999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>343</v>
       </c>
@@ -1965,18 +1794,8 @@
       <c r="C61" s="1">
         <v>18.190255806130999</v>
       </c>
-      <c r="K61">
-        <v>21.5</v>
-      </c>
-      <c r="L61">
-        <v>3.74</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="0"/>
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>344</v>
       </c>
@@ -1986,18 +1805,8 @@
       <c r="C62" s="1">
         <v>19.709827745898998</v>
       </c>
-      <c r="K62">
-        <v>22</v>
-      </c>
-      <c r="L62">
-        <v>3.21</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="0"/>
-        <v>3.4750000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>345</v>
       </c>
@@ -2007,18 +1816,8 @@
       <c r="C63" s="1">
         <v>21.478539803036</v>
       </c>
-      <c r="K63">
-        <v>22.5</v>
-      </c>
-      <c r="L63">
-        <v>2.68</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="0"/>
-        <v>2.9450000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>346</v>
       </c>
@@ -2028,18 +1827,8 @@
       <c r="C64" s="1">
         <v>23.494198666231</v>
       </c>
-      <c r="K64">
-        <v>23</v>
-      </c>
-      <c r="L64">
-        <v>2.15</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="0"/>
-        <v>2.415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>347</v>
       </c>
@@ -2049,18 +1838,8 @@
       <c r="C65" s="4">
         <v>25.758414927027001</v>
       </c>
-      <c r="K65">
-        <v>23.5</v>
-      </c>
-      <c r="L65">
-        <v>1.61</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="0"/>
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>348</v>
       </c>
@@ -2070,18 +1849,8 @@
       <c r="C66" s="1">
         <v>28.272955134476</v>
       </c>
-      <c r="K66">
-        <v>24</v>
-      </c>
-      <c r="L66">
-        <v>1.08</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="0"/>
-        <v>1.3450000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>349</v>
       </c>
@@ -2091,18 +1860,8 @@
       <c r="C67" s="1">
         <v>31.045364660674</v>
       </c>
-      <c r="K67">
-        <v>24.5</v>
-      </c>
-      <c r="L67">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="0"/>
-        <v>0.81500000000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>350</v>
       </c>
@@ -2112,18 +1871,8 @@
       <c r="C68" s="1">
         <v>34.093565064384002</v>
       </c>
-      <c r="K68">
-        <v>24.76</v>
-      </c>
-      <c r="L68">
-        <v>0.27</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="0"/>
-        <v>0.41000000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>351</v>
       </c>
@@ -2134,7 +1883,7 @@
         <v>37.424282657729002</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>352</v>
       </c>
@@ -2145,7 +1894,7 @@
         <v>41.009776599730003</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>353</v>
       </c>
@@ -2156,7 +1905,7 @@
         <v>44.839979913850996</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>354</v>
       </c>
@@ -2187,7 +1936,7 @@
         <v>3120.2465944987953</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>355</v>
       </c>
@@ -2198,11 +1947,11 @@
         <v>53.660514014249998</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:D91" si="1">F$39*F$40*F$41*F$39*F$43*F$42*(E73)^(3/2)</f>
+        <f t="shared" ref="D73:D91" si="0">F$39*F$40*F$41*F$39*F$43*F$42*(E73)^(3/2)</f>
         <v>98.670861000000016</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:E91" si="2">A73-354</f>
+        <f t="shared" ref="E73:E91" si="1">A73-354</f>
         <v>1</v>
       </c>
       <c r="F73">
@@ -2218,7 +1967,7 @@
         <v>3599.7964604614313</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>356</v>
       </c>
@@ -2229,11 +1978,11 @@
         <v>58.832041979515999</v>
       </c>
       <c r="D74">
+        <f t="shared" si="0"/>
+        <v>279.083339674461</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="1"/>
-        <v>279.083339674461</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F74">
@@ -2249,7 +1998,7 @@
         <v>4101.6706674855968</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>357</v>
       </c>
@@ -2260,11 +2009,11 @@
         <v>64.443924532905996</v>
       </c>
       <c r="D75">
+        <f t="shared" si="0"/>
+        <v>512.70883343569938</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="1"/>
-        <v>512.70883343569938</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F75">
@@ -2280,7 +2029,7 @@
         <v>4624.9170334858418</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>358</v>
       </c>
@@ -2291,11 +2040,11 @@
         <v>70.344165231792005</v>
       </c>
       <c r="D76">
+        <f t="shared" si="0"/>
+        <v>789.3668879999999</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="1"/>
-        <v>789.3668879999999</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F76">
@@ -2311,7 +2060,7 @@
         <v>5168.695782879925</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>359</v>
       </c>
@@ -2322,11 +2071,11 @@
         <v>76.496330706541997</v>
       </c>
       <c r="D77">
+        <f t="shared" si="0"/>
+        <v>1103.1737629721642</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="1"/>
-        <v>1103.1737629721642</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F77">
@@ -2342,7 +2091,7 @@
         <v>5732.2590211342031</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>360</v>
       </c>
@@ -2353,11 +2102,11 @@
         <v>82.832766253124007</v>
       </c>
       <c r="D78">
+        <f t="shared" si="0"/>
+        <v>1450.1595715865087</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="1"/>
-        <v>1450.1595715865087</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F78">
@@ -2373,7 +2122,7 @@
         <v>6314.9351039999992</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>361</v>
       </c>
@@ -2384,11 +2133,11 @@
         <v>89.302442566314994</v>
       </c>
       <c r="D79">
+        <f t="shared" si="0"/>
+        <v>1827.4099189823537</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="1"/>
-        <v>1827.4099189823537</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F79">
@@ -2404,7 +2153,7 @@
         <v>6916.1164952518548</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>362</v>
       </c>
@@ -2415,11 +2164,11 @@
         <v>95.915040740793003</v>
       </c>
       <c r="D80">
+        <f t="shared" si="0"/>
+        <v>2232.6667173956871</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="1"/>
-        <v>2232.6667173956871</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F80">
@@ -2435,7 +2184,7 @@
         <v>7535.2501712104431</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>363</v>
       </c>
@@ -2446,11 +2195,11 @@
         <v>102.67996248036</v>
       </c>
       <c r="D81">
+        <f t="shared" si="0"/>
+        <v>2664.1132470000002</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="1"/>
-        <v>2664.1132470000002</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F81">
@@ -2466,7 +2215,7 @@
         <v>8171.8299236518224</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>364</v>
       </c>
@@ -2477,18 +2226,15 @@
         <v>109.58479767656</v>
       </c>
       <c r="D82">
+        <f t="shared" si="0"/>
+        <v>3120.2465944987953</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="1"/>
-        <v>3120.2465944987953</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>365</v>
       </c>
@@ -2499,48 +2245,18 @@
         <v>116.62089014754001</v>
       </c>
       <c r="D83">
+        <f t="shared" si="0"/>
+        <v>3599.7964604614313</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="1"/>
-        <v>3599.7964604614313</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="M83" t="s">
-        <v>13</v>
-      </c>
-      <c r="N83" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" t="s">
-        <v>24</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R83" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S83" t="s">
-        <v>19</v>
-      </c>
-      <c r="T83" t="s">
-        <v>20</v>
-      </c>
-      <c r="U83" t="s">
-        <v>21</v>
-      </c>
-      <c r="V83" t="s">
-        <v>22</v>
-      </c>
-      <c r="W83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="8"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>366</v>
       </c>
@@ -2551,24 +2267,15 @@
         <v>123.78405726094999</v>
       </c>
       <c r="D84">
+        <f t="shared" si="0"/>
+        <v>4101.6706674855968</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="1"/>
-        <v>4101.6706674855968</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0.27</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>367</v>
       </c>
@@ -2579,25 +2286,15 @@
         <v>131.06979018683001</v>
       </c>
       <c r="D85">
+        <f t="shared" si="0"/>
+        <v>4624.9170334858418</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="1"/>
-        <v>4624.9170334858418</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="M85">
-        <v>0.5</v>
-      </c>
-      <c r="N85">
-        <v>5.95</v>
-      </c>
-      <c r="O85">
-        <f>(N84+N85)/2</f>
-        <v>3.1100000000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>368</v>
       </c>
@@ -2608,25 +2305,15 @@
         <v>138.44899532771001</v>
       </c>
       <c r="D86">
+        <f t="shared" si="0"/>
+        <v>5168.695782879925</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="1"/>
-        <v>5168.695782879925</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>23.06</v>
-      </c>
-      <c r="O86">
-        <f t="shared" ref="O86:O132" si="3">(N85+N86)/2</f>
-        <v>14.504999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>369</v>
       </c>
@@ -2637,25 +2324,15 @@
         <v>145.86780709371999</v>
       </c>
       <c r="D87">
+        <f t="shared" si="0"/>
+        <v>5732.2590211342031</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="1"/>
-        <v>5732.2590211342031</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M87">
-        <v>1.5</v>
-      </c>
-      <c r="N87">
-        <v>63.72</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="3"/>
-        <v>43.39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>370</v>
       </c>
@@ -2666,25 +2343,15 @@
         <v>153.31408788771</v>
       </c>
       <c r="D88">
+        <f t="shared" si="0"/>
+        <v>6314.9351039999992</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="1"/>
-        <v>6314.9351039999992</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>108.37</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="3"/>
-        <v>86.045000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>371</v>
       </c>
@@ -2695,25 +2362,15 @@
         <v>160.78819308376998</v>
       </c>
       <c r="D89">
+        <f t="shared" si="0"/>
+        <v>6916.1164952518548</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="1"/>
-        <v>6916.1164952518548</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="M89">
-        <v>2.5</v>
-      </c>
-      <c r="N89">
-        <v>138.29</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="3"/>
-        <v>123.33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>372</v>
       </c>
@@ -2724,25 +2381,15 @@
         <v>168.29047805597</v>
       </c>
       <c r="D90">
+        <f t="shared" si="0"/>
+        <v>7535.2501712104431</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="1"/>
-        <v>7535.2501712104431</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M90">
-        <v>3</v>
-      </c>
-      <c r="N90">
-        <v>131.87</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="3"/>
-        <v>135.07999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>373</v>
       </c>
@@ -2753,514 +2400,12 @@
         <v>175.82129817842002</v>
       </c>
       <c r="D91">
+        <f t="shared" si="0"/>
+        <v>8171.8299236518224</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="1"/>
-        <v>8171.8299236518224</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="2"/>
         <v>19</v>
-      </c>
-      <c r="M91">
-        <v>3.5</v>
-      </c>
-      <c r="N91">
-        <v>116.9</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="3"/>
-        <v>124.38500000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M92">
-        <v>4</v>
-      </c>
-      <c r="N92">
-        <v>103.36</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="3"/>
-        <v>110.13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>90.88</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="3"/>
-        <v>97.12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M94">
-        <v>5</v>
-      </c>
-      <c r="N94">
-        <v>80.28</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="3"/>
-        <v>85.58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M95">
-        <v>5.5</v>
-      </c>
-      <c r="N95">
-        <v>72.489999999999995</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="3"/>
-        <v>76.384999999999991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="M96">
-        <v>6</v>
-      </c>
-      <c r="N96">
-        <v>64.709999999999994</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="3"/>
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="97" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M97">
-        <v>6.5</v>
-      </c>
-      <c r="N97">
-        <v>56.92</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="3"/>
-        <v>60.814999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M98">
-        <v>7</v>
-      </c>
-      <c r="N98">
-        <v>53.09</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="3"/>
-        <v>55.005000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M99">
-        <v>7.5</v>
-      </c>
-      <c r="N99">
-        <v>50</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="3"/>
-        <v>51.545000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M100">
-        <v>8</v>
-      </c>
-      <c r="N100">
-        <v>46.92</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="3"/>
-        <v>48.46</v>
-      </c>
-    </row>
-    <row r="101" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M101">
-        <v>8.5</v>
-      </c>
-      <c r="N101">
-        <v>43.84</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="3"/>
-        <v>45.38</v>
-      </c>
-    </row>
-    <row r="102" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M102">
-        <v>9</v>
-      </c>
-      <c r="N102">
-        <v>40.76</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="3"/>
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="103" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M103">
-        <v>9.5</v>
-      </c>
-      <c r="N103">
-        <v>37.68</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="3"/>
-        <v>39.22</v>
-      </c>
-    </row>
-    <row r="104" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M104">
-        <v>10</v>
-      </c>
-      <c r="N104">
-        <v>34.6</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="3"/>
-        <v>36.14</v>
-      </c>
-    </row>
-    <row r="105" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M105">
-        <v>10.5</v>
-      </c>
-      <c r="N105">
-        <v>31.52</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="3"/>
-        <v>33.06</v>
-      </c>
-    </row>
-    <row r="106" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M106">
-        <v>11</v>
-      </c>
-      <c r="N106">
-        <v>27.98</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="3"/>
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="107" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M107">
-        <v>11.5</v>
-      </c>
-      <c r="N107">
-        <v>26.77</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="3"/>
-        <v>27.375</v>
-      </c>
-    </row>
-    <row r="108" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M108">
-        <v>12</v>
-      </c>
-      <c r="N108">
-        <v>25.36</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="3"/>
-        <v>26.064999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M109">
-        <v>12.5</v>
-      </c>
-      <c r="N109">
-        <v>23.95</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="3"/>
-        <v>24.655000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M110">
-        <v>13</v>
-      </c>
-      <c r="N110">
-        <v>22.54</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="3"/>
-        <v>23.244999999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M111">
-        <v>13.5</v>
-      </c>
-      <c r="N111">
-        <v>21.13</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="3"/>
-        <v>21.835000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M112">
-        <v>14</v>
-      </c>
-      <c r="N112">
-        <v>19.72</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="3"/>
-        <v>20.424999999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M113">
-        <v>14.5</v>
-      </c>
-      <c r="N113">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="3"/>
-        <v>19.015000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M114">
-        <v>15</v>
-      </c>
-      <c r="N114">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="3"/>
-        <v>17.604999999999997</v>
-      </c>
-    </row>
-    <row r="115" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M115">
-        <v>15.5</v>
-      </c>
-      <c r="N115">
-        <v>15.48</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="3"/>
-        <v>16.189999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M116">
-        <v>16</v>
-      </c>
-      <c r="N116">
-        <v>14.09</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="3"/>
-        <v>14.785</v>
-      </c>
-    </row>
-    <row r="117" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M117">
-        <v>16.5</v>
-      </c>
-      <c r="N117">
-        <v>13.16</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="3"/>
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="118" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M118">
-        <v>17</v>
-      </c>
-      <c r="N118">
-        <v>12.21</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="3"/>
-        <v>12.685</v>
-      </c>
-    </row>
-    <row r="119" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M119">
-        <v>17.5</v>
-      </c>
-      <c r="N119">
-        <v>11.27</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="3"/>
-        <v>11.74</v>
-      </c>
-    </row>
-    <row r="120" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M120">
-        <v>18</v>
-      </c>
-      <c r="N120">
-        <v>10.33</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="3"/>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="121" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M121">
-        <v>18.5</v>
-      </c>
-      <c r="N121">
-        <v>9.39</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="3"/>
-        <v>9.86</v>
-      </c>
-    </row>
-    <row r="122" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M122">
-        <v>19</v>
-      </c>
-      <c r="N122">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="3"/>
-        <v>8.92</v>
-      </c>
-    </row>
-    <row r="123" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M123">
-        <v>19.5</v>
-      </c>
-      <c r="N123">
-        <v>7.47</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="3"/>
-        <v>7.9599999999999991</v>
-      </c>
-    </row>
-    <row r="124" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M124">
-        <v>20</v>
-      </c>
-      <c r="N124">
-        <v>6.53</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M125">
-        <v>20.5</v>
-      </c>
-      <c r="N125">
-        <v>5.59</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="3"/>
-        <v>6.0600000000000005</v>
-      </c>
-    </row>
-    <row r="126" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M126">
-        <v>21</v>
-      </c>
-      <c r="N126">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="3"/>
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="127" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M127">
-        <v>21.5</v>
-      </c>
-      <c r="N127">
-        <v>3.71</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="3"/>
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="128" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M128">
-        <v>22</v>
-      </c>
-      <c r="N128">
-        <v>2.77</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="3"/>
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="129" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M129">
-        <v>22.5</v>
-      </c>
-      <c r="N129">
-        <v>1.83</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="130" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M130">
-        <v>23</v>
-      </c>
-      <c r="N130">
-        <v>0.9</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="3"/>
-        <v>1.365</v>
-      </c>
-    </row>
-    <row r="131" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M131">
-        <v>23.5</v>
-      </c>
-      <c r="N131">
-        <v>0.38</v>
-      </c>
-      <c r="O131">
-        <f t="shared" si="3"/>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="132" spans="13:15" x14ac:dyDescent="0.4">
-      <c r="M132">
-        <v>23.98</v>
-      </c>
-      <c r="N132">
-        <v>0.27</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="3"/>
-        <v>0.32500000000000001</v>
       </c>
     </row>
   </sheetData>
